--- a/config/rbac.xlsx
+++ b/config/rbac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14655" windowHeight="5760"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front_api" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
   <si>
     <t>/web/user/signup/stu</t>
   </si>
@@ -184,6 +184,87 @@
   </si>
   <si>
     <t>修改签到详情</t>
+  </si>
+  <si>
+    <t>/web/export/[0-9]*$</t>
+  </si>
+  <si>
+    <t>导出签到表</t>
+  </si>
+  <si>
+    <t>/web/lab</t>
+  </si>
+  <si>
+    <t>新增实验</t>
+  </si>
+  <si>
+    <t>修改实验</t>
+  </si>
+  <si>
+    <t>实验列表</t>
+  </si>
+  <si>
+    <t>/web/lab/[0-9]*$</t>
+  </si>
+  <si>
+    <t>获取实验详细信息</t>
+  </si>
+  <si>
+    <t>删除实验</t>
+  </si>
+  <si>
+    <t>/web/upload/pic</t>
+  </si>
+  <si>
+    <t>上传图片</t>
+  </si>
+  <si>
+    <t>/web/upload/pdf</t>
+  </si>
+  <si>
+    <t>上传pdf</t>
+  </si>
+  <si>
+    <t>/web/upload/attachments</t>
+  </si>
+  <si>
+    <t>上传附件</t>
+  </si>
+  <si>
+    <t>/web/upload/video</t>
+  </si>
+  <si>
+    <t>上传视频</t>
+  </si>
+  <si>
+    <t>/web/summit/report</t>
+  </si>
+  <si>
+    <t>上传实验报告</t>
+  </si>
+  <si>
+    <t>/web/summit/code</t>
+  </si>
+  <si>
+    <t>标记实验代码完成</t>
+  </si>
+  <si>
+    <t>/web/summit</t>
+  </si>
+  <si>
+    <t>查阅完成情况</t>
+  </si>
+  <si>
+    <t>/web/summit/compile/log</t>
+  </si>
+  <si>
+    <t>查阅编译错误日志</t>
+  </si>
+  <si>
+    <t>教师</t>
+  </si>
+  <si>
+    <t>学生</t>
   </si>
 </sst>
 </file>
@@ -191,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -220,6 +301,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,15 +370,45 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,75 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,21 +429,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,103 +439,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,31 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,50 +623,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -553,16 +634,75 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,17 +722,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +764,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,15 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,139 +815,163 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1154,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1169,414 +1339,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>102</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>106</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>108</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>201</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>202</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>203</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>204</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>205</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>206</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>207</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>208</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>209</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>210</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>211</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>212</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>213</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>214</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>215</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>216</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>217</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>218</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>219</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>220</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>221</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>222</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>301</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>302</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>303</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>305</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>306</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>401</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>402</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>403</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>404</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>501</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>502</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>503</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>504</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C15 C16:C20 C21:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34 C1:C15 C16:C20 C21:C30 C31:C33 C35:C38 C39:C45">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1589,10 +1955,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1602,520 +1968,927 @@
     <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>103</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>104</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>106</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>201</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>202</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>203</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>204</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>205</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>206</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>207</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>208</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>209</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>210</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
         <v>212</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
         <v>215</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <v>217</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>218</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
         <v>219</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
         <v>220</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
         <v>221</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>222</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>301</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>302</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>303</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>305</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>306</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>401</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>402</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>403</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>404</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>503</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>504</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C35" s="1">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
+      <c r="E35" s="1"/>
+      <c r="F35" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>103</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>104</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>103</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>201</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>104</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>202</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>105</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>203</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="E40" s="1"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>106</v>
+      </c>
+      <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C23">
-        <v>103</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="C41" s="1">
+        <v>204</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="E41" s="1"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1">
         <v>2</v>
       </c>
-      <c r="C24">
-        <v>104</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="C42" s="1">
+        <v>205</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="E42" s="1"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>108</v>
+      </c>
+      <c r="B43" s="1">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>201</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+      <c r="C43" s="1">
+        <v>206</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="E43" s="1"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>109</v>
+      </c>
+      <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="C26">
-        <v>202</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27">
+      <c r="C44" s="1">
+        <v>207</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>203</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28">
+      <c r="C45" s="1">
+        <v>211</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>111</v>
+      </c>
+      <c r="B46" s="1">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>204</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29">
+      <c r="C46" s="1">
+        <v>212</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>112</v>
+      </c>
+      <c r="B47" s="1">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>205</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
+      <c r="C47" s="1">
+        <v>213</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>113</v>
+      </c>
+      <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>206</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31">
+      <c r="C48" s="1">
+        <v>216</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>114</v>
+      </c>
+      <c r="B49" s="1">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>207</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32">
+      <c r="C49" s="1">
+        <v>303</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>115</v>
+      </c>
+      <c r="B50" s="1">
         <v>2</v>
       </c>
-      <c r="C32">
-        <v>211</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33">
+      <c r="C50" s="1">
+        <v>305</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>212</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34">
+      <c r="C51" s="1">
+        <v>401</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>117</v>
+      </c>
+      <c r="B52" s="1">
         <v>2</v>
       </c>
-      <c r="C34">
-        <v>213</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35">
+      <c r="C52" s="1">
+        <v>402</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="C35">
-        <v>216</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
+      <c r="C53" s="1">
+        <v>403</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>119</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>404</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>501</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>121</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>502</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:F33"/>
+    <mergeCell ref="F35:F56"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H15 H16:H20 H21:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 H2 H8 H15 H16 H21 H3:H7 H9:H14 H17:H20 H22:H31">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/rbac.xlsx
+++ b/config/rbac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="front_api" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="102">
   <si>
     <t>/web/user/signup/stu</t>
   </si>
@@ -75,6 +75,9 @@
     <t>重置密码</t>
   </si>
   <si>
+    <t>根据token获取信息</t>
+  </si>
+  <si>
     <t>/web/comment/course</t>
   </si>
   <si>
@@ -192,6 +195,27 @@
     <t>导出签到表</t>
   </si>
   <si>
+    <t>/web/course/resource</t>
+  </si>
+  <si>
+    <t>新增课程资源</t>
+  </si>
+  <si>
+    <t>修改课程资源</t>
+  </si>
+  <si>
+    <t>列表课程资源</t>
+  </si>
+  <si>
+    <t>/web/course/resource/[0-9]*$</t>
+  </si>
+  <si>
+    <t>获得具体课程资源</t>
+  </si>
+  <si>
+    <t>删除课程资源</t>
+  </si>
+  <si>
     <t>/web/lab</t>
   </si>
   <si>
@@ -213,6 +237,12 @@
     <t>删除实验</t>
   </si>
   <si>
+    <t>/web/lab/student</t>
+  </si>
+  <si>
+    <t>根据token获取实验</t>
+  </si>
+  <si>
     <t>/web/upload/pic</t>
   </si>
   <si>
@@ -259,6 +289,33 @@
   </si>
   <si>
     <t>查阅编译错误日志</t>
+  </si>
+  <si>
+    <t>/web/ide</t>
+  </si>
+  <si>
+    <t>打开ide</t>
+  </si>
+  <si>
+    <t>关闭ide</t>
+  </si>
+  <si>
+    <t>/web/ide/checkCode</t>
+  </si>
+  <si>
+    <t>检查代码</t>
+  </si>
+  <si>
+    <t>/web/coding_time</t>
+  </si>
+  <si>
+    <t>查看个人编码时间</t>
+  </si>
+  <si>
+    <t>/web/coding_time/[0-9]*$</t>
+  </si>
+  <si>
+    <t>查看课程成员编码时间</t>
   </si>
   <si>
     <t>教师</t>
@@ -294,14 +351,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +375,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,21 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -401,14 +451,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +482,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,37 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,25 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +574,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,31 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,18 +646,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -648,52 +705,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +764,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -757,15 +784,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,17 +802,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,175 +810,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1324,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1452,41 +1444,41 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1494,10 +1486,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1508,13 +1500,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -1522,10 +1514,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1536,41 +1528,41 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>31</v>
@@ -1578,209 +1570,209 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>60</v>
@@ -1788,13 +1780,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>61</v>
@@ -1802,27 +1794,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>64</v>
@@ -1830,119 +1822,287 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>501</v>
+        <v>305</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>502</v>
+        <v>306</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>503</v>
+        <v>307</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
+        <v>401</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>402</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>403</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>404</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>501</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>502</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>503</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
         <v>504</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>80</v>
+      <c r="D50" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>601</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>602</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>603</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>701</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>702</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34 C1:C15 C16:C20 C21:C30 C31:C33 C35:C38 C39:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C35 C36 C40 C41 C42 C1:C8 C10:C16 C17:C21 C22:C31 C32:C34 C37:C39 C43:C45 C46:C50 C51:C52 C53:C55">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1955,10 +2115,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1983,7 +2143,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2000,8 +2160,8 @@
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="4"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="2"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
@@ -2017,8 +2177,8 @@
         <v>10</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="4"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="2"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
@@ -2034,8 +2194,8 @@
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="2"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
@@ -2045,14 +2205,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="2"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
@@ -2062,14 +2222,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="2"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
@@ -2079,14 +2239,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="2"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
@@ -2096,14 +2256,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
@@ -2113,14 +2273,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="I9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
@@ -2130,14 +2290,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="I10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
@@ -2147,14 +2307,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="I11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
@@ -2164,14 +2324,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
@@ -2181,14 +2341,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
@@ -2198,14 +2358,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="I14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
@@ -2215,14 +2375,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
@@ -2232,14 +2392,14 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
@@ -2249,14 +2409,14 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>217</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>215</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
@@ -2266,14 +2426,14 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
@@ -2283,14 +2443,14 @@
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="4"/>
-      <c r="I19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
@@ -2300,14 +2460,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="4"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="2"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
@@ -2317,14 +2477,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="4"/>
-      <c r="I21" s="9"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
@@ -2334,14 +2494,14 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="4"/>
-      <c r="I22" s="9"/>
+      <c r="F22" s="2"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
@@ -2351,16 +2511,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="4"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="2"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2368,13 +2528,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
@@ -2384,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
@@ -2400,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -2416,13 +2577,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -2432,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
@@ -2448,13 +2609,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
@@ -2464,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
@@ -2480,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
@@ -2496,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>503</v>
+        <v>404</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
@@ -2512,383 +2673,667 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
+        <v>503</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
         <v>504</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>102</v>
+        <v>601</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>103</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
+        <v>602</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>104</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
+        <v>603</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>201</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>20</v>
+        <v>223</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>202</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>22</v>
+        <v>224</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>203</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>23</v>
+        <v>225</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>204</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>24</v>
+        <v>226</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>205</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>25</v>
+        <v>227</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>206</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>701</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="C44" s="1">
-        <v>207</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="8"/>
+      <c r="C44">
+        <v>702</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>211</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>35</v>
+        <v>102</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>216</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>45</v>
+        <v>109</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>303</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>61</v>
+        <v>201</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
       </c>
       <c r="C50" s="1">
-        <v>305</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>63</v>
+        <v>202</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>401</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>66</v>
+        <v>203</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>402</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>68</v>
+        <v>204</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
       </c>
       <c r="C53" s="1">
-        <v>403</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>205</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>404</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>206</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>501</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>207</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B56" s="1">
         <v>2</v>
       </c>
       <c r="C56" s="1">
+        <v>211</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>212</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>213</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>216</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>115</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>303</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>116</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>305</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>117</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>401</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>118</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>402</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>119</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>403</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1">
+        <v>404</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>121</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>501</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>122</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
         <v>502</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="8"/>
+      <c r="D67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>123</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>601</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>124</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>602</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>127</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>225</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>128</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>226</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>227</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>130</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>307</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>131</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>701</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:F33"/>
-    <mergeCell ref="F35:F56"/>
+    <mergeCell ref="F1:F37"/>
+    <mergeCell ref="F45:F69"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 H2 H8 H15 H16 H21 H3:H7 H9:H14 H17:H20 H22:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 H2 H5 H9 H16 H17 H22 H3:H4 H6:H8 H10:H15 H18:H21 H23:H32">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
